--- a/data/调参.xlsx
+++ b/data/调参.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17520" windowHeight="20295"/>
+    <workbookView windowWidth="17520" windowHeight="20295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plane_ransac" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="边缘拟合" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>单位mm</t>
   </si>
@@ -28,6 +28,60 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>精度</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>适用场景</t>
+  </si>
+  <si>
+    <t>凸包算法</t>
+  </si>
+  <si>
+    <t>中等（适合凸形物体）</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>规则形状的物体，如盒子、砖块</t>
+  </si>
+  <si>
+    <t>法向量变化检测</t>
+  </si>
+  <si>
+    <t>高（适合捕捉复杂边缘）</t>
+  </si>
+  <si>
+    <t>中等到低（较慢）</t>
+  </si>
+  <si>
+    <t>复杂形状的物体，需要精细边缘检测</t>
+  </si>
+  <si>
+    <t>二维投影加凸包算法</t>
+  </si>
+  <si>
+    <t>中高（适合平面物体）</t>
+  </si>
+  <si>
+    <t>平面点云，如砖块顶面、地面等</t>
+  </si>
+  <si>
+    <t>深度差异检测</t>
+  </si>
+  <si>
+    <t>中（取决于表面复杂度）</t>
+  </si>
+  <si>
+    <t>较薄物体的边缘，尤其是有明显高度变化的边缘</t>
   </si>
 </sst>
 </file>
@@ -40,8 +94,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -505,154 +567,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1004,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1072,14 +1143,85 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="90" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
